--- a/Archive/ChildCareEC.xlsx
+++ b/Archive/ChildCareEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0D0BD-C0DC-5D4C-B97A-F8DED2E96E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD0315-D108-DE49-8462-99D86B82A341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="580" windowWidth="28800" windowHeight="16700" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="13580" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1136,18 +1136,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="204">
+    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6">
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="388">
+    <row r="6" spans="1:4" ht="388" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68">
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="102">
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="388">
+    <row r="12" spans="1:4" ht="388" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6">
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="204">
+    <row r="14" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51">
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="51">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="102">
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="221">
+    <row r="20" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51">
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="372">
+    <row r="22" spans="1:4" ht="372" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="372">
+    <row r="24" spans="1:4" ht="372" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1475,11 +1475,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1"/>
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="238">
+    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6">
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="221">
+    <row r="29" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="221">
+    <row r="30" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="68">
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="85">
+    <row r="32" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="170">
+    <row r="33" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="170">
+    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.6">
+    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68">
+    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="51">
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="306">
+    <row r="38" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="68">
+    <row r="39" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="306">
+    <row r="40" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="272">
+    <row r="42" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="272">
+    <row r="43" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34">
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="34">
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34">
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="204">
+    <row r="47" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>67</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="102">
+    <row r="48" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="323">
+    <row r="49" spans="1:4" ht="323" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="340">
+    <row r="50" spans="1:4" ht="340" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="388">
+    <row r="51" spans="1:4" ht="388" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="170">
+    <row r="52" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="34">
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="51">
+    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="34">
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
